--- a/GWL_Data/2023 GW data.xlsx
+++ b/GWL_Data/2023 GW data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project water simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Groundwater\GWL_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41EA6CF-39DF-490C-9DCD-DD5494C62AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D05C10-9872-444C-846A-02B7BB299F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>Ale-1</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>Khadakwasala_3</t>
-  </si>
-  <si>
-    <t>Nov--32</t>
   </si>
   <si>
     <t>Range-nov</t>
@@ -337,11 +334,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +656,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -679,17 +676,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>44927</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2">
         <v>45047</v>
@@ -709,17 +706,17 @@
       <c r="H2" t="s">
         <v>84</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2">
+        <v>45231</v>
+      </c>
+      <c r="J2" t="s">
         <v>87</v>
-      </c>
-      <c r="J2" t="s">
-        <v>88</v>
       </c>
       <c r="K2" s="2">
         <v>45261</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12">
